--- a/MATLAB/20170210-DOE/Example2Factors (Autosaved).xlsx
+++ b/MATLAB/20170210-DOE/Example2Factors (Autosaved).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Step1 (2)" sheetId="7" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
   <si>
     <t>Level</t>
   </si>
@@ -180,6 +180,21 @@
   </si>
   <si>
     <t>r-suared</t>
+  </si>
+  <si>
+    <t>coded x1</t>
+  </si>
+  <si>
+    <t>coded x2</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>(x1-x_bar)^2</t>
+  </si>
+  <si>
+    <t>(x2-x_bar)^2</t>
   </si>
 </sst>
 </file>
@@ -1785,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,15 +2063,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2076,16 +2091,16 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" t="s">
-        <v>8</v>
       </c>
       <c r="P1" t="s">
         <v>4</v>
@@ -2114,8 +2129,14 @@
       <c r="X1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2191,8 +2212,16 @@
         <f>W2^2</f>
         <v>2197.3218753599858</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z2">
+        <f>(N2-$N$10)^2</f>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f>(O2-$O$10)^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1</v>
       </c>
@@ -2269,8 +2298,16 @@
         <f t="shared" ref="X3:X8" si="11">W3^2</f>
         <v>2119.6079366400204</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z3">
+        <f>(N3-$N$10)^2</f>
+        <v>9</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA8" si="12">(O3-$O$10)^2</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2346,8 +2383,16 @@
         <f t="shared" si="11"/>
         <v>1695.2159289999779</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z4">
+        <f>(N4-$N$10)^2</f>
+        <v>9</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="12"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2424,8 +2469,16 @@
         <f t="shared" si="11"/>
         <v>5075.3940672399858</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z5">
+        <f>(N5-$N$10)^2</f>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="G6">
         <v>0</v>
       </c>
@@ -2489,8 +2542,16 @@
         <f t="shared" si="11"/>
         <v>1695.2159290000377</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z6">
+        <f>(N6-$N$10)^2</f>
+        <v>9</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="12"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K7">
         <v>2</v>
       </c>
@@ -2545,8 +2606,16 @@
         <f t="shared" si="11"/>
         <v>2119.6079366400045</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z7">
+        <f>(N7-$N$10)^2</f>
+        <v>9</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="12"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="K8">
         <v>0</v>
       </c>
@@ -2601,62 +2670,101 @@
         <f t="shared" si="11"/>
         <v>3170.4782489999889</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z8">
+        <f>(N8-$N$10)^2</f>
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="L9">
-        <f t="shared" ref="L9:X9" si="12">SUM(L2:L8)</f>
+        <f t="shared" ref="L9:X9" si="13">SUM(L2:L8)</f>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="O9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>210</v>
       </c>
       <c r="P9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3736.8393999999998</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>148</v>
       </c>
       <c r="R9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7200</v>
       </c>
       <c r="S9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>840</v>
       </c>
       <c r="T9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18756.928</v>
       </c>
       <c r="U9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>120034.66800000001</v>
       </c>
       <c r="V9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3736.8394000000008</v>
       </c>
       <c r="W9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-8.1001871876651421E-13</v>
       </c>
       <c r="X9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>18072.841922880001</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z9">
+        <f>SUM(Z2:Z8)</f>
+        <v>36</v>
+      </c>
+      <c r="AA9">
+        <f>SUM(AA2:AA8)</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10">
+        <f>AVERAGE(L2:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:P10" si="14">AVERAGE(M2:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="14"/>
+        <v>533.83420000000001</v>
+      </c>
       <c r="W10" t="s">
         <v>17</v>
       </c>
@@ -2664,8 +2772,16 @@
         <f>X9/D14</f>
         <v>2581.8345604114288</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <f>SQRT(Z9)</f>
+        <v>6</v>
+      </c>
+      <c r="AA10">
+        <f>SQRT(AA9)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="W11" t="s">
         <v>18</v>
       </c>
@@ -2674,7 +2790,31 @@
         <v>50.811756124064722</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X12">
+        <f>X9/4</f>
+        <v>4518.2104807200003</v>
+      </c>
+      <c r="Z12">
+        <f>X12/Z9</f>
+        <v>125.50584668666667</v>
+      </c>
+      <c r="AA12">
+        <f>X13/AA10</f>
+        <v>2.2405878397123078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="X13">
+        <f>SQRT(X12)</f>
+        <v>67.21763519136924</v>
+      </c>
+      <c r="Z13">
+        <f>SQRT(Z12)</f>
+        <v>11.202939198561539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <f>COUNT(K2:K8)</f>
         <v>7</v>
@@ -2692,7 +2832,7 @@
         <v>3736.8393999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <f>E14</f>
         <v>28</v>
@@ -2710,7 +2850,7 @@
         <v>18756.928</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <f>O9</f>
         <v>210</v>
@@ -2728,7 +2868,7 @@
         <v>120034.66800000001</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <f t="array" ref="D18:F20">MINVERSE(D14:F16)</f>
         <v>1.5873015873015872</v>
@@ -2744,7 +2884,7 @@
         <v>-153.76760000000058</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>-0.1111111111111111</v>
       </c>
@@ -2757,8 +2897,12 @@
       <c r="H19" s="1">
         <v>105.82140000000004</v>
       </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f>H19^2+H20^2</f>
+        <v>11275.794313051609</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>-3.3333333333333333E-2</v>
       </c>
@@ -2770,6 +2914,20 @@
       </c>
       <c r="H20" s="1">
         <v>8.8105400000000174</v>
+      </c>
+      <c r="J20">
+        <f>SQRT(J19)</f>
+        <v>106.18754311618481</v>
+      </c>
+      <c r="K20">
+        <f>H19/$J$20</f>
+        <v>0.99655192025881834</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <f>H20/$J$20</f>
+        <v>8.2971502508161335E-2</v>
       </c>
     </row>
   </sheetData>
